--- a/Graph _Source contribution.xlsx
+++ b/Graph _Source contribution.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\Manuscript 2019 Stable Isotopes\Isotopes_Analysis_2017_2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\Manuscript 2019 Stable Isotopes\Isotopes-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41312F72-E8CD-46D1-BE4D-8754726E6C64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642E099D-7B33-402E-80FF-14BCABE42D3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="928" firstSheet="11" activeTab="21" xr2:uid="{1B477496-2124-44FC-9F87-618B6A023ADB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="928" activeTab="8" xr2:uid="{1B477496-2124-44FC-9F87-618B6A023ADB}"/>
   </bookViews>
   <sheets>
     <sheet name="GlossosmatidaeQPA" sheetId="3" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="ChrinomidaeQPB" sheetId="8" r:id="rId6"/>
     <sheet name="NeohagenulusQPA" sheetId="9" r:id="rId7"/>
     <sheet name="NeohagenulusQPB" sheetId="10" r:id="rId8"/>
-    <sheet name="PhylloicusQPB" sheetId="2" r:id="rId9"/>
-    <sheet name="PhylloicusQPA" sheetId="1" r:id="rId10"/>
+    <sheet name="PhylloicusQPA" sheetId="1" r:id="rId9"/>
+    <sheet name="PhylloicusQPB" sheetId="2" r:id="rId10"/>
     <sheet name="LibellulidaeQPA" sheetId="11" r:id="rId11"/>
     <sheet name="LibellulidaeQPB" sheetId="12" r:id="rId12"/>
     <sheet name="XiphocarisQPA" sheetId="13" r:id="rId13"/>
@@ -543,11 +543,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C302DF-526C-416F-A68C-4364D2A1F443}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684271BB-7519-4542-8114-FB32E539DFCE}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,15 +579,6 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="D2">
-        <v>0.307</v>
-      </c>
-      <c r="E2">
-        <v>0.89600000000000002</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -596,15 +587,6 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="D3">
-        <v>0.112</v>
-      </c>
-      <c r="E3">
-        <v>0.52400000000000002</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -613,15 +595,6 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>0.377</v>
-      </c>
-      <c r="D4">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="E4">
-        <v>0.81399999999999995</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -630,15 +603,6 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="D5">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="E5">
-        <v>0.874</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -647,15 +611,6 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="D6">
-        <v>0.104</v>
-      </c>
-      <c r="E6">
-        <v>0.69299999999999995</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -664,15 +619,6 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="D7">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="E7">
-        <v>0.88800000000000001</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -681,15 +627,9 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.623</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.186</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.94399999999999995</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -698,19 +638,12 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.126</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.91200000000000003</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1978,7 +1911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977F066B-7A9B-4CB3-A1C7-28CC3FB37DFA}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2710,11 +2643,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684271BB-7519-4542-8114-FB32E539DFCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C302DF-526C-416F-A68C-4364D2A1F443}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2746,6 +2679,15 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.307</v>
+      </c>
+      <c r="E2">
+        <v>0.89600000000000002</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2754,6 +2696,15 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.112</v>
+      </c>
+      <c r="E3">
+        <v>0.52400000000000002</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2762,6 +2713,15 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>0.377</v>
+      </c>
+      <c r="D4">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.81399999999999995</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2770,6 +2730,15 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="D5">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.874</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2778,6 +2747,15 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.104</v>
+      </c>
+      <c r="E6">
+        <v>0.69299999999999995</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2786,6 +2764,15 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
+      <c r="C7">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="D7">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.88800000000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2794,9 +2781,15 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8" s="1">
+        <v>0.623</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.186</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.94399999999999995</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -2805,11 +2798,18 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9" s="1">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.91200000000000003</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Graph _Source contribution.xlsx
+++ b/Graph _Source contribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\Manuscript 2019 Stable Isotopes\Isotopes-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642E099D-7B33-402E-80FF-14BCABE42D3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FA6811-A997-4ED8-B623-386CCCB47D84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="928" activeTab="8" xr2:uid="{1B477496-2124-44FC-9F87-618B6A023ADB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="928" firstSheet="10" activeTab="20" xr2:uid="{1B477496-2124-44FC-9F87-618B6A023ADB}"/>
   </bookViews>
   <sheets>
     <sheet name="GlossosmatidaeQPA" sheetId="3" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="23">
   <si>
     <t>Data</t>
   </si>
@@ -87,6 +87,42 @@
   </si>
   <si>
     <t>UpperCI</t>
+  </si>
+  <si>
+    <t>Value1A</t>
+  </si>
+  <si>
+    <t>Value2A</t>
+  </si>
+  <si>
+    <t>Value3A</t>
+  </si>
+  <si>
+    <t>Value4A</t>
+  </si>
+  <si>
+    <t>Value5A</t>
+  </si>
+  <si>
+    <t>Value6A</t>
+  </si>
+  <si>
+    <t>Value7A</t>
+  </si>
+  <si>
+    <t>Value8A</t>
+  </si>
+  <si>
+    <t>Value9A</t>
+  </si>
+  <si>
+    <t>Value10A</t>
+  </si>
+  <si>
+    <t>Value11A</t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
@@ -122,9 +158,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30F87BB-FDC1-43D0-B72C-4DF2E186A1C0}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H4" sqref="H4:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -474,6 +512,15 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>0.65</v>
+      </c>
+      <c r="D2">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.94499999999999995</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -482,6 +529,15 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="D3">
+        <v>0.216</v>
+      </c>
+      <c r="E3">
+        <v>0.97099999999999997</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -490,6 +546,15 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>0.502</v>
+      </c>
+      <c r="D4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.94499999999999995</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -498,6 +563,15 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.06</v>
+      </c>
+      <c r="E5">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -506,6 +580,15 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>0.35</v>
+      </c>
+      <c r="D6">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.88100000000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -514,6 +597,15 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
+      <c r="C7">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D7">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.78400000000000003</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -522,9 +614,15 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8">
+        <v>0.498</v>
+      </c>
+      <c r="D8">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.94199999999999995</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -533,9 +631,20 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="D9">
+        <v>0.125</v>
+      </c>
+      <c r="E9">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J26" s="3"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -652,7 +761,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G11" sqref="G11:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -684,6 +793,15 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="D2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.68200000000000005</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -692,6 +810,15 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>0.109</v>
+      </c>
+      <c r="D3">
+        <v>0.02</v>
+      </c>
+      <c r="E3">
+        <v>0.34100000000000003</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -700,6 +827,15 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="D4">
+        <v>0.08</v>
+      </c>
+      <c r="E4">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -708,6 +844,15 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>0.371</v>
+      </c>
+      <c r="D5">
+        <v>0.06</v>
+      </c>
+      <c r="E5">
+        <v>0.89300000000000002</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -716,6 +861,15 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.318</v>
+      </c>
+      <c r="E6">
+        <v>0.90300000000000002</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -724,6 +878,15 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
+      <c r="C7">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="E7">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -732,9 +895,15 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.04</v>
+      </c>
+      <c r="E8">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -743,9 +912,15 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9">
+        <v>0.629</v>
+      </c>
+      <c r="D9">
+        <v>0.107</v>
+      </c>
+      <c r="E9">
+        <v>0.94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -859,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EC0B93-7440-460D-8661-5AC55C2A9C41}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G5" sqref="G5:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -870,7 +1045,7 @@
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -878,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -887,75 +1062,199 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="D2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.65</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="D4">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.78800000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="D5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.77800000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="D6">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.95699999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.35</v>
+      </c>
+      <c r="E7">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.222</v>
+      </c>
+      <c r="E9">
+        <v>0.95899999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H20" s="3"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="28" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H28" s="3"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="36" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H36" s="3"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="44" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H44" s="3"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="52" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H52" s="3"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="60" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H60" s="3"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="68" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H68" s="3"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="76" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H76" s="3"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="84" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H84" s="3"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+    </row>
+    <row r="92" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H92" s="3"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+    </row>
+    <row r="100" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H100" s="3"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1072,7 +1371,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H4" sqref="H4:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1088,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -1104,6 +1403,15 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.114</v>
+      </c>
+      <c r="E2">
+        <v>0.70399999999999996</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1112,6 +1420,15 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.02</v>
+      </c>
+      <c r="E3">
+        <v>0.70499999999999996</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1120,6 +1437,15 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D4">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.74199999999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1128,6 +1454,15 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="D5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.74199999999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1136,6 +1471,15 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.88600000000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1144,6 +1488,15 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
+      <c r="C7">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="D7">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1152,9 +1505,15 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D8">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="E8">
+        <v>0.94699999999999995</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1163,9 +1522,15 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="D9">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.95599999999999996</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1282,7 +1647,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H4" sqref="H4:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1298,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -1314,6 +1679,15 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="D2">
+        <v>0.154</v>
+      </c>
+      <c r="E2">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1322,6 +1696,15 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>9.4E-2</v>
+      </c>
+      <c r="D3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.53300000000000003</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1330,6 +1713,15 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.18</v>
+      </c>
+      <c r="E4">
+        <v>0.73399999999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1338,6 +1730,15 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.47099999999999997</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1346,6 +1747,15 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D6">
+        <v>0.23</v>
+      </c>
+      <c r="E6">
+        <v>0.84599999999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1354,6 +1764,15 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
+      <c r="C7">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="D7">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="E7">
+        <v>0.98399999999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1362,9 +1781,15 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="D8">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="E8">
+        <v>0.95299999999999996</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1373,9 +1798,15 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="D9">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="E9">
+        <v>0.98299999999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1492,7 +1923,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H4" sqref="H4:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1508,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -1524,6 +1955,15 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="D2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.56699999999999995</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1532,6 +1972,15 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E3">
+        <v>0.16800000000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1540,6 +1989,15 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="D4">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.93100000000000005</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1548,6 +2006,15 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="D5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.85299999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1556,6 +2023,15 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="D6">
+        <v>0.433</v>
+      </c>
+      <c r="E6">
+        <v>0.97199999999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1564,6 +2040,15 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
+      <c r="C7">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="D7">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="E7">
+        <v>0.99099999999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1572,9 +2057,15 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D8">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.63100000000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1583,9 +2074,15 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.96599999999999997</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1597,7 +2094,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E3" sqref="E3:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1679,7 +2176,6 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1690,7 +2186,6 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1806,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781D601C-B91B-4675-B10F-A601D8F225CC}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1823,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -1839,6 +2334,15 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1847,6 +2351,15 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>0.15</v>
+      </c>
+      <c r="D3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.78200000000000003</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1855,6 +2368,15 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D4">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.91400000000000003</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1863,6 +2385,15 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="D5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.80100000000000005</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1871,6 +2402,15 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1879,6 +2419,15 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
+      <c r="C7">
+        <v>0.85</v>
+      </c>
+      <c r="D7">
+        <v>0.218</v>
+      </c>
+      <c r="E7">
+        <v>0.97899999999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1887,9 +2436,15 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8">
+        <v>0.434</v>
+      </c>
+      <c r="D8">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.90400000000000003</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1898,9 +2453,15 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.96599999999999997</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2014,10 +2575,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E67ED53-6295-422A-A30E-F883F9318638}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H6" sqref="H6:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2025,7 +2586,7 @@
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2033,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -2042,75 +2603,145 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0.34</v>
+      </c>
+      <c r="D2">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="D3">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E4">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="D5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0.66</v>
+      </c>
+      <c r="D6">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="D7">
+        <v>0.49</v>
+      </c>
+      <c r="E7">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="D8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.99299999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="D9">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2227,7 +2858,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G2" sqref="G2:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2243,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -2259,6 +2890,15 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>0.44</v>
+      </c>
+      <c r="D2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2267,6 +2907,15 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.04</v>
+      </c>
+      <c r="E3">
+        <v>0.84099999999999997</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2275,6 +2924,15 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D4">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2283,6 +2941,15 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>0.372</v>
+      </c>
+      <c r="D5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.89100000000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2291,6 +2958,15 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D6">
+        <v>0.09</v>
+      </c>
+      <c r="E6">
+        <v>0.92800000000000005</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2299,6 +2975,15 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
+      <c r="C7">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.159</v>
+      </c>
+      <c r="E7">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2307,9 +2992,15 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.96799999999999997</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -2318,9 +3009,15 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9">
+        <v>0.628</v>
+      </c>
+      <c r="D9">
+        <v>0.109</v>
+      </c>
+      <c r="E9">
+        <v>0.94899999999999995</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2437,7 +3134,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I2" sqref="I2:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2453,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -2469,6 +3166,15 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="E2">
+        <v>0.89500000000000002</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2477,6 +3183,15 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="D3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.39600000000000002</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2485,6 +3200,15 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="D4">
+        <v>0.104</v>
+      </c>
+      <c r="E4">
+        <v>0.88200000000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2493,6 +3217,15 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="D5">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.89500000000000002</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2501,6 +3234,15 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.105</v>
+      </c>
+      <c r="E6">
+        <v>0.71099999999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2509,6 +3251,15 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
+      <c r="C7">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="D7">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.95899999999999996</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2517,9 +3268,15 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.89600000000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -2528,9 +3285,15 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="D9">
+        <v>0.105</v>
+      </c>
+      <c r="E9">
+        <v>0.95099999999999996</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2646,8 +3409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C302DF-526C-416F-A68C-4364D2A1F443}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2663,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -2680,13 +3443,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.63600000000000001</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="D2">
-        <v>0.307</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="E2">
-        <v>0.89600000000000002</v>
+        <v>0.92300000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2697,13 +3460,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.30099999999999999</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="D3">
-        <v>0.112</v>
+        <v>0.111</v>
       </c>
       <c r="E3">
-        <v>0.52400000000000002</v>
+        <v>0.53500000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2714,13 +3477,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.377</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="D4">
-        <v>5.6000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E4">
-        <v>0.81399999999999995</v>
+        <v>0.78900000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2731,13 +3494,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.44500000000000001</v>
+        <v>0.432</v>
       </c>
       <c r="D5">
-        <v>8.7999999999999995E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="E5">
-        <v>0.874</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2748,13 +3511,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.36399999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="D6">
-        <v>0.104</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="E6">
-        <v>0.69299999999999995</v>
+        <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2765,13 +3528,13 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>0.69899999999999995</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="D7">
-        <v>0.47599999999999998</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="E7">
-        <v>0.88800000000000001</v>
+        <v>0.88900000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2781,14 +3544,14 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.623</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.186</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.94399999999999995</v>
+      <c r="C8">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2798,14 +3561,14 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.126</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.91200000000000003</v>
+      <c r="C9">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="D9">
+        <v>0.13</v>
+      </c>
+      <c r="E9">
+        <v>0.92100000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Graph _Source contribution.xlsx
+++ b/Graph _Source contribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\Manuscript 2019 Stable Isotopes\Isotopes-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FA6811-A997-4ED8-B623-386CCCB47D84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27E1898-72B7-406C-A360-9AF65BDA0215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="928" firstSheet="10" activeTab="20" xr2:uid="{1B477496-2124-44FC-9F87-618B6A023ADB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="928" firstSheet="11" activeTab="20" xr2:uid="{1B477496-2124-44FC-9F87-618B6A023ADB}"/>
   </bookViews>
   <sheets>
     <sheet name="GlossosmatidaeQPA" sheetId="3" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="22">
   <si>
     <t>Data</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Value11A</t>
-  </si>
-  <si>
-    <t>na</t>
   </si>
 </sst>
 </file>
@@ -2302,7 +2299,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:I12"/>
+      <selection activeCell="C6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2334,15 +2331,6 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2401,15 +2389,6 @@
       </c>
       <c r="B6" t="s">
         <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2578,7 +2557,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:L23"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
